--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2569201.773641563</v>
+        <v>2567314.192125161</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9619583.913299093</v>
+        <v>9619583.913299097</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>262.9218996909078</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>329.6586928752346</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.26252137233833</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249382</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.204531785131</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002177</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.27978370493935</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.6484356245242</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193506</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29855725687357</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.492632996304025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433783</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750037</v>
+        <v>58.19095390327296</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.67402846883046</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.322702126633057</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1057.701283029432</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>646.7153782398241</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.489535627676</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373638</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2648.399069430002</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2648.399069430002</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2648.399069430002</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,37 +4887,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,22 +5030,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,28 +5060,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.259996875529</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432673</v>
+        <v>213.9110074201017</v>
       </c>
       <c r="C16" t="n">
-        <v>324.3840174432673</v>
+        <v>213.9110074201017</v>
       </c>
       <c r="D16" t="n">
-        <v>174.2673780309316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>174.2673780309316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>174.2673780309316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>174.2673780309316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>174.2673780309316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550797</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150545</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170372</v>
+        <v>213.9110074201017</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735071</v>
+        <v>213.9110074201017</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432677</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153608</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D19" t="n">
-        <v>155.4478345153608</v>
+        <v>160.488499714766</v>
       </c>
       <c r="E19" t="n">
-        <v>155.4478345153608</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="F19" t="n">
-        <v>155.4478345153608</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147657</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150549</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170375</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735074</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>566.6879222525851</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246782</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123424</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123424</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123424</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123424</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>754.8946022306071</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>754.8946022306071</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y22" t="n">
-        <v>748.3363870828248</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>450.0103882072908</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>281.0742052793839</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>281.0742052793839</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>133.1611116969908</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>133.1611116969908</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>670.8029673508209</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>450.0103882072908</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>985.5330309511301</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.1158609141693</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>468.1263100161519</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,34 +6473,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.5472734739664</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739664</v>
+        <v>434.1559631596405</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430015</v>
+        <v>339.8001890286756</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103115</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982962</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7178,7 +7178,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291456</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>96.03744927814711</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703344</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165278</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.38012156696375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.0884962179947</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>34.13946175933265</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.8451328388534</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560091</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.3169157613388</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0920203557908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.9089884290398</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338551</v>
+        <v>163.3566071551163</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.9546950845497</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>106.7208623434376</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.5104277353</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="D2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="K2" t="n">
+        <v>589892.0991506411</v>
+      </c>
+      <c r="L2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
+      <c r="M2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516051</v>
-      </c>
-      <c r="E2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="K2" t="n">
-        <v>589892.099150641</v>
-      </c>
-      <c r="L2" t="n">
-        <v>595255.2831516051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>595255.2831516046</v>
-      </c>
       <c r="N2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516044</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.438453889383176e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007521</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7916.731656007497</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007503</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732793</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422699</v>
+        <v>-225488.72284227</v>
       </c>
       <c r="C6" t="n">
+        <v>364479.1563722746</v>
+      </c>
+      <c r="D6" t="n">
         <v>364479.1563722744</v>
       </c>
-      <c r="D6" t="n">
-        <v>364479.1563722747</v>
-      </c>
       <c r="E6" t="n">
-        <v>-58071.95746194248</v>
+        <v>-58169.4165879142</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889813</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889813</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223607</v>
+        <v>290567.4006963883</v>
       </c>
       <c r="K6" t="n">
-        <v>423019.9311473685</v>
+        <v>423001.4374094342</v>
       </c>
       <c r="L6" t="n">
-        <v>456861.7516333849</v>
+        <v>456861.7516333846</v>
       </c>
       <c r="M6" t="n">
-        <v>332403.6432004141</v>
+        <v>332403.6432004143</v>
       </c>
       <c r="N6" t="n">
-        <v>467204.6584342513</v>
+        <v>467204.658434251</v>
       </c>
       <c r="O6" t="n">
-        <v>467204.6584342515</v>
+        <v>467204.6584342514</v>
       </c>
       <c r="P6" t="n">
-        <v>423042.0531314058</v>
+        <v>423042.0531314057</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>150.8622703298872</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.7731302731595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>35.61419889577297</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.215881202473383</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.250924017556841e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679886</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>406.4618263286133</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>522.1296519817046</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>630.5822970683473</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36996,10 +36996,10 @@
         <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,10 +37546,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,13 +37631,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
